--- a/Data/Nelson Deflections Table.xlsx
+++ b/Data/Nelson Deflections Table.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emily\Documents\Grad School\Non-class Research\nelson-rep\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32DA5C4-ABB8-4349-8AE3-5B08AA82CF12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="15315" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Overall Deflection</t>
   </si>
@@ -69,6 +63,9 @@
     <t>adulterer abandoned call-girl</t>
   </si>
   <si>
+    <t>Question</t>
+  </si>
+  <si>
     <t>bartender befuddled bigot</t>
   </si>
   <si>
@@ -163,33 +160,12 @@
   </si>
   <si>
     <t>Sample size</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>replaced1</t>
-  </si>
-  <si>
-    <t>replaced2</t>
-  </si>
-  <si>
-    <t>replaced3</t>
-  </si>
-  <si>
-    <t>replaced4</t>
-  </si>
-  <si>
-    <t>replaced5</t>
-  </si>
-  <si>
-    <t>replaced6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,9 +212,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,26 +293,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,23 +328,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,33 +503,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.109375" style="3"/>
-    <col min="13" max="14" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="3"/>
+    <col min="16" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>46</v>
@@ -598,992 +540,992 @@
       <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>2.44</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>1.61</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="3">
         <v>0.81</v>
       </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>2.8</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>0.38</v>
       </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>35</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>3.23</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>1.26</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>1.57</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>0.4</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>2.37</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>1.07</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>0.68</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>0.62</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>2.4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3">
         <v>0.46</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>1.54</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>0.44</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>1.46</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3">
         <v>0.03</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>0.87</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
         <v>1.69</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>0.88</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>0.74</v>
       </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1.92</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>0.08</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>0.53</v>
       </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
         <v>35</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3">
         <v>1.76</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>0.8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>0.84</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>0.12</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3">
         <v>1.4</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="3">
         <v>0.75</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>0.15</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>0.5</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
         <v>1.56</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>0.24</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>0.9</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>0.42</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.97</v>
       </c>
-      <c r="G13" s="3">
+      <c r="I13" s="3">
         <v>0.06</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>0.36</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3">
         <v>3.72</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2.89</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>0.03</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>0.8</v>
       </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
         <v>16</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3">
         <v>6.43</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3.14</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1.06</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2.23</v>
       </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
       <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3">
         <v>4.25</v>
       </c>
-      <c r="G16" s="3">
+      <c r="I16" s="3">
         <v>2.78</v>
       </c>
-      <c r="H16" s="3">
+      <c r="J16" s="3">
         <v>0.83</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>0.64</v>
       </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
       <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3">
         <v>5.23</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>0.16</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>0.38</v>
       </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
       <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
         <v>18</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>37</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3">
         <v>6.24</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3.25</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1.45</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1.54</v>
       </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
       <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>37</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3">
         <v>3.48</v>
       </c>
-      <c r="G19" s="3">
+      <c r="I19" s="3">
         <v>1.21</v>
       </c>
-      <c r="H19" s="3">
+      <c r="J19" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K19" s="3">
         <v>1.99</v>
       </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
       <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>34</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
         <v>1.64</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>0.68</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>0.15</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>0.81</v>
       </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3">
         <v>3.79</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>0.83</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>0.81</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2.15</v>
       </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
       <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>34</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3">
         <v>1.48</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>0.43</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>0.34</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>0.71</v>
       </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
       <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>34</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3">
         <v>2.37</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1.91</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>0.06</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>0.4</v>
       </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
       <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
         <v>18</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>34</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3">
         <v>4.3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1.83</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>0.9</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1.57</v>
       </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
       <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
         <v>13</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>34</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="3">
         <v>2.21</v>
       </c>
-      <c r="G25" s="3">
+      <c r="I25" s="3">
         <v>0.15</v>
       </c>
-      <c r="H25" s="3">
+      <c r="J25" s="3">
         <v>0.09</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>1.97</v>
       </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5</v>
       </c>
       <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>38</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="3">
         <v>6.53</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3.99</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>0.81</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1.73</v>
       </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
       <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>38</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>0.93</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>0.17</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3.17</v>
       </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5</v>
       </c>
       <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
         <v>18</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>38</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3">
         <v>4.78</v>
       </c>
-      <c r="G28" s="3">
+      <c r="I28" s="3">
         <v>1.81</v>
       </c>
-      <c r="H28" s="3">
+      <c r="J28" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K28" s="3">
         <v>0.54</v>
       </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>5</v>
       </c>
       <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
         <v>14</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>38</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="3">
         <v>3.84</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>0.25</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>0.98</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>2.61</v>
       </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>5</v>
       </c>
       <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
         <v>20</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>38</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="3">
         <v>1.89</v>
       </c>
-      <c r="G30" s="3">
+      <c r="I30" s="3">
         <v>1.56</v>
       </c>
-      <c r="H30" s="3">
+      <c r="J30" s="3">
         <v>0.15</v>
       </c>
-      <c r="I30" s="3">
+      <c r="K30" s="3">
         <v>0.18</v>
       </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>5</v>
       </c>
       <c r="B31" s="2">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>38</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="3">
         <v>3.34</v>
       </c>
-      <c r="G31" s="3">
+      <c r="I31" s="3">
         <v>1.19</v>
       </c>
-      <c r="H31" s="3">
+      <c r="J31" s="3">
         <v>0.16</v>
       </c>
-      <c r="I31" s="3">
+      <c r="K31" s="3">
         <v>1.99</v>
       </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -1591,193 +1533,193 @@
         <v>1</v>
       </c>
       <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
         <v>41</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3">
         <v>6.52</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5.63</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>0.67</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>0.22</v>
       </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>6</v>
       </c>
       <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
         <v>13</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>41</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="3">
         <v>1.46</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>0.46</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>0.47</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>0.53</v>
       </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6</v>
       </c>
       <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
         <v>15</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>41</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="3">
         <v>4.8</v>
       </c>
-      <c r="G34" s="3">
+      <c r="I34" s="3">
         <v>2.41</v>
       </c>
-      <c r="H34" s="3">
+      <c r="J34" s="3">
         <v>1.86</v>
       </c>
-      <c r="I34" s="3">
+      <c r="K34" s="3">
         <v>0.53</v>
       </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>6</v>
       </c>
       <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
         <v>21</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>41</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="3">
         <v>3.6</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>0.69</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1.69</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1.22</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>6</v>
       </c>
       <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
         <v>20</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>41</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="3">
         <v>1.77</v>
       </c>
-      <c r="G36" s="3">
+      <c r="I36" s="3">
         <v>1.36</v>
       </c>
-      <c r="H36" s="3">
+      <c r="J36" s="3">
         <v>0.16</v>
       </c>
-      <c r="I36" s="3">
+      <c r="K36" s="3">
         <v>0.25</v>
       </c>
-      <c r="J36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>6</v>
       </c>
       <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
         <v>25</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>41</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G37" s="3">
+      <c r="I37" s="3">
         <v>1.17</v>
       </c>
-      <c r="H37" s="3">
+      <c r="J37" s="3">
         <v>0.1</v>
       </c>
-      <c r="I37" s="3">
+      <c r="K37" s="3">
         <v>0.99</v>
       </c>
-      <c r="J37" s="3">
+      <c r="M37" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F1:F729">
-    <sortCondition ref="F7"/>
+  <sortState ref="G1:H729">
+    <sortCondition ref="G7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1785,24 +1727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
